--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10505"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyang/git/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyang/git/excel_template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D6A8F9-F520-2743-B0BC-90B644AEDD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F5495C-B0F7-074C-98D0-B825C7387145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{D2821383-8B85-6B48-B733-F504A8CD2AAF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>表头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>{{.订单号 | toUpper}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,120 +1142,129 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,15 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1593,7 +1597,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1609,63 +1613,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" thickBot="1">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="19" thickTop="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:9" ht="18" thickTop="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="60"/>
     </row>
     <row r="5" spans="1:9" ht="18">
       <c r="A5" s="1" t="s">
@@ -1777,10 +1781,10 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="67"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -1810,48 +1814,48 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="17">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
     </row>
     <row r="14" spans="1:9" ht="18">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="73">
         <f>COUNTA(H6:H8)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" ht="19" thickBot="1">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="76">
         <f>SUM(I6:I8)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:9" ht="18" thickTop="1">
       <c r="B16" s="7"/>
@@ -1876,71 +1880,72 @@
       </c>
     </row>
     <row r="18" spans="2:9" ht="17">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="82"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="2:9" ht="17">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="43"/>
+      <c r="G19" s="82"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="2:9" ht="17">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:I13"/>
@@ -1948,13 +1953,12 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1966,7 +1970,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1982,11 +1986,11 @@
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="38"/>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -2026,16 +2030,16 @@
       <c r="A4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" ht="17">
       <c r="A5" s="1" t="s">
@@ -2131,21 +2135,21 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="82"/>
+      <c r="E9" s="85"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -2158,17 +2162,20 @@
       <c r="C11" t="s">
         <v>58</v>
       </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -2177,26 +2184,26 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
@@ -2245,16 +2252,16 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
     </row>
     <row r="2" spans="1:9" ht="17">
       <c r="A2" s="1" t="s">
@@ -2289,13 +2296,13 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="40">
         <f>F3+H3</f>
         <v>0</v>
@@ -2305,14 +2312,14 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="85">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44">
         <f>F4+H4</f>
         <v>0</v>
       </c>
